--- a/SVM.xlsx
+++ b/SVM.xlsx
@@ -1183,7 +1183,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>0.842592592592593</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="D16">
         <v>0.576923076923077</v>
@@ -1663,10 +1663,10 @@
         <v>47</v>
       </c>
       <c r="C31">
-        <v>0.907407407407407</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="D31">
-        <v>0.692307692307692</v>
+        <v>0.653846153846154</v>
       </c>
       <c r="E31">
         <v>0.990740740740741</v>
